--- a/xlsx/局_intext.xlsx
+++ b/xlsx/局_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>機構</t>
+    <t>机构</t>
   </si>
   <si>
     <t>政策_政策_行政_局</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99%E6%A5%AD</t>
   </si>
   <si>
-    <t>服務業</t>
+    <t>服务业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%BA%97</t>
@@ -65,31 +65,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%B5%E5%B1%80</t>
   </si>
   <si>
-    <t>郵局</t>
+    <t>邮局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B8%E5%B1%80</t>
   </si>
   <si>
-    <t>書局</t>
+    <t>书局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>藥局</t>
+    <t>药局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>競賽</t>
+    <t>竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%83%E9%A1%9E%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>球類運動</t>
+    <t>球类运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%83%E5%B1%80</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>日本歷史</t>
+    <t>日本历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AE%E5%BB%B7</t>
   </si>
   <si>
-    <t>宮廷</t>
+    <t>宫廷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%AE%98</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%BF%E9%96%93</t>
   </si>
   <si>
-    <t>房間</t>
+    <t>房间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E6%97%8F</t>
@@ -143,13 +143,13 @@
     <t>https://ja.wikipedia.org/wiki/%E5%B0%86%E8%BB%8D%E5%AE%B6</t>
   </si>
   <si>
-    <t>ja-将軍家</t>
+    <t>ja-将军家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E9%8A%9C</t>
   </si>
   <si>
-    <t>頭銜</t>
+    <t>头衔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E6%97%A5%E5%B1%80</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>企業</t>
+    <t>企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A2%E4%BD%93</t>
@@ -179,25 +179,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%93%E8%AE%80</t>
   </si>
   <si>
-    <t>訓讀</t>
+    <t>训读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E8%AE%80</t>
   </si>
   <si>
-    <t>音讀</t>
+    <t>音读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E7%B7%8F%E5%B1%80</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%80%E9%95%B7</t>
   </si>
   <si>
-    <t>局長</t>
+    <t>局长</t>
   </si>
 </sst>
 </file>
